--- a/controllers/CL_TEST_8_action 5/data/TRY_AGAIN_1_0/TRY_AGAIN_1_0_TEST_GAP_9/TRY_AGAIN_1_0_TEST_GAP_9_Test_Result.xlsx
+++ b/controllers/CL_TEST_8_action 5/data/TRY_AGAIN_1_0/TRY_AGAIN_1_0_TEST_GAP_9/TRY_AGAIN_1_0_TEST_GAP_9_Test_Result.xlsx
@@ -445,13 +445,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B2" t="n">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
@@ -476,13 +476,13 @@
     </row>
     <row r="5">
       <c r="B5" t="n">
-        <v>0.95</v>
+        <v>0.8787878787878788</v>
       </c>
       <c r="C5" t="n">
-        <v>0.025</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="D5" t="n">
-        <v>0.025</v>
+        <v>0.0303030303030303</v>
       </c>
     </row>
   </sheetData>

--- a/controllers/CL_TEST_8_action 5/data/TRY_AGAIN_1_0/TRY_AGAIN_1_0_TEST_GAP_9/TRY_AGAIN_1_0_TEST_GAP_9_Test_Result.xlsx
+++ b/controllers/CL_TEST_8_action 5/data/TRY_AGAIN_1_0/TRY_AGAIN_1_0_TEST_GAP_9/TRY_AGAIN_1_0_TEST_GAP_9_Test_Result.xlsx
@@ -445,16 +445,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>33</v>
+        <v>400</v>
       </c>
       <c r="B2" t="n">
-        <v>29</v>
+        <v>394</v>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -476,13 +476,13 @@
     </row>
     <row r="5">
       <c r="B5" t="n">
-        <v>0.8787878787878788</v>
+        <v>0.985</v>
       </c>
       <c r="C5" t="n">
-        <v>0.09090909090909091</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0303030303030303</v>
+        <v>0.015</v>
       </c>
     </row>
   </sheetData>

--- a/controllers/CL_TEST_8_action 5/data/TRY_AGAIN_1_0/TRY_AGAIN_1_0_TEST_GAP_9/TRY_AGAIN_1_0_TEST_GAP_9_Test_Result.xlsx
+++ b/controllers/CL_TEST_8_action 5/data/TRY_AGAIN_1_0/TRY_AGAIN_1_0_TEST_GAP_9/TRY_AGAIN_1_0_TEST_GAP_9_Test_Result.xlsx
@@ -448,13 +448,13 @@
         <v>400</v>
       </c>
       <c r="B2" t="n">
-        <v>394</v>
+        <v>373</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D2" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -476,13 +476,13 @@
     </row>
     <row r="5">
       <c r="B5" t="n">
-        <v>0.985</v>
+        <v>0.9325</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>0.0475</v>
       </c>
       <c r="D5" t="n">
-        <v>0.015</v>
+        <v>0.02</v>
       </c>
     </row>
   </sheetData>

--- a/controllers/CL_TEST_8_action 5/data/TRY_AGAIN_1_0/TRY_AGAIN_1_0_TEST_GAP_9/TRY_AGAIN_1_0_TEST_GAP_9_Test_Result.xlsx
+++ b/controllers/CL_TEST_8_action 5/data/TRY_AGAIN_1_0/TRY_AGAIN_1_0_TEST_GAP_9/TRY_AGAIN_1_0_TEST_GAP_9_Test_Result.xlsx
@@ -448,10 +448,10 @@
         <v>400</v>
       </c>
       <c r="B2" t="n">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="C2" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D2" t="n">
         <v>8</v>
@@ -476,10 +476,10 @@
     </row>
     <row r="5">
       <c r="B5" t="n">
-        <v>0.9325</v>
+        <v>0.9175</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0475</v>
+        <v>0.0625</v>
       </c>
       <c r="D5" t="n">
         <v>0.02</v>
